--- a/data/amortization.xlsx
+++ b/data/amortization.xlsx
@@ -430,19 +430,19 @@
         <v>2025</v>
       </c>
       <c r="B2" t="str">
-        <v>₹ 95,365</v>
+        <v>₹ 90,644</v>
       </c>
       <c r="C2" t="str">
-        <v>₹ 1,80,380</v>
+        <v>₹ 1,71,450</v>
       </c>
       <c r="D2" t="str">
         <v>₹ 22,500</v>
       </c>
       <c r="E2" t="str">
-        <v>₹ 2,98,244</v>
+        <v>₹ 2,84,593</v>
       </c>
       <c r="F2" t="str">
-        <v>₹ 49,54,635</v>
+        <v>₹ 47,09,356</v>
       </c>
       <c r="G2" t="str">
         <v>1.89%</v>
@@ -453,19 +453,19 @@
         <v>2026</v>
       </c>
       <c r="B3" t="str">
-        <v>₹ 2,01,312</v>
+        <v>₹ 1,91,346</v>
       </c>
       <c r="C3" t="str">
-        <v>₹ 3,50,177</v>
+        <v>₹ 3,32,841</v>
       </c>
       <c r="D3" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E3" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F3" t="str">
-        <v>₹ 47,53,324</v>
+        <v>₹ 45,18,011</v>
       </c>
       <c r="G3" t="str">
         <v>5.87%</v>
@@ -476,19 +476,19 @@
         <v>2027</v>
       </c>
       <c r="B4" t="str">
-        <v>₹ 2,16,294</v>
+        <v>₹ 2,05,587</v>
       </c>
       <c r="C4" t="str">
-        <v>₹ 3,35,194</v>
+        <v>₹ 3,18,600</v>
       </c>
       <c r="D4" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E4" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F4" t="str">
-        <v>₹ 45,37,029</v>
+        <v>₹ 43,12,424</v>
       </c>
       <c r="G4" t="str">
         <v>10.16%</v>
@@ -499,19 +499,19 @@
         <v>2028</v>
       </c>
       <c r="B5" t="str">
-        <v>₹ 2,32,392</v>
+        <v>₹ 2,20,887</v>
       </c>
       <c r="C5" t="str">
-        <v>₹ 3,19,097</v>
+        <v>₹ 3,03,300</v>
       </c>
       <c r="D5" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E5" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F5" t="str">
-        <v>₹ 43,04,638</v>
+        <v>₹ 40,91,537</v>
       </c>
       <c r="G5" t="str">
         <v>14.76%</v>
@@ -522,19 +522,19 @@
         <v>2029</v>
       </c>
       <c r="B6" t="str">
-        <v>₹ 2,49,687</v>
+        <v>₹ 2,37,327</v>
       </c>
       <c r="C6" t="str">
-        <v>₹ 3,01,801</v>
+        <v>₹ 2,86,860</v>
       </c>
       <c r="D6" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E6" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F6" t="str">
-        <v>₹ 40,54,950</v>
+        <v>₹ 38,54,210</v>
       </c>
       <c r="G6" t="str">
         <v>19.7%</v>
@@ -545,19 +545,19 @@
         <v>2030</v>
       </c>
       <c r="B7" t="str">
-        <v>₹ 2,68,270</v>
+        <v>₹ 2,54,989</v>
       </c>
       <c r="C7" t="str">
-        <v>₹ 2,83,218</v>
+        <v>₹ 2,69,198</v>
       </c>
       <c r="D7" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E7" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F7" t="str">
-        <v>₹ 37,86,680</v>
+        <v>₹ 35,99,221</v>
       </c>
       <c r="G7" t="str">
         <v>25.02%</v>
@@ -568,19 +568,19 @@
         <v>2031</v>
       </c>
       <c r="B8" t="str">
-        <v>₹ 2,88,236</v>
+        <v>₹ 2,73,967</v>
       </c>
       <c r="C8" t="str">
-        <v>₹ 2,63,252</v>
+        <v>₹ 2,50,220</v>
       </c>
       <c r="D8" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E8" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F8" t="str">
-        <v>₹ 34,98,444</v>
+        <v>₹ 33,25,254</v>
       </c>
       <c r="G8" t="str">
         <v>30.72%</v>
@@ -591,19 +591,19 @@
         <v>2032</v>
       </c>
       <c r="B9" t="str">
-        <v>₹ 3,09,688</v>
+        <v>₹ 2,94,357</v>
       </c>
       <c r="C9" t="str">
-        <v>₹ 2,41,801</v>
+        <v>₹ 2,29,830</v>
       </c>
       <c r="D9" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E9" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F9" t="str">
-        <v>₹ 31,88,757</v>
+        <v>₹ 30,30,898</v>
       </c>
       <c r="G9" t="str">
         <v>36.86%</v>
@@ -614,19 +614,19 @@
         <v>2033</v>
       </c>
       <c r="B10" t="str">
-        <v>₹ 3,32,736</v>
+        <v>₹ 3,16,264</v>
       </c>
       <c r="C10" t="str">
-        <v>₹ 2,18,753</v>
+        <v>₹ 2,07,923</v>
       </c>
       <c r="D10" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E10" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F10" t="str">
-        <v>₹ 28,56,021</v>
+        <v>₹ 27,14,634</v>
       </c>
       <c r="G10" t="str">
         <v>43.45%</v>
@@ -637,19 +637,19 @@
         <v>2034</v>
       </c>
       <c r="B11" t="str">
-        <v>₹ 3,57,499</v>
+        <v>₹ 3,39,801</v>
       </c>
       <c r="C11" t="str">
-        <v>₹ 1,93,989</v>
+        <v>₹ 1,84,386</v>
       </c>
       <c r="D11" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E11" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F11" t="str">
-        <v>₹ 24,98,522</v>
+        <v>₹ 23,74,832</v>
       </c>
       <c r="G11" t="str">
         <v>50.52%</v>
@@ -660,19 +660,19 @@
         <v>2035</v>
       </c>
       <c r="B12" t="str">
-        <v>₹ 3,84,106</v>
+        <v>₹ 3,65,091</v>
       </c>
       <c r="C12" t="str">
-        <v>₹ 1,67,382</v>
+        <v>₹ 1,59,096</v>
       </c>
       <c r="D12" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E12" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F12" t="str">
-        <v>₹ 21,14,416</v>
+        <v>₹ 20,09,742</v>
       </c>
       <c r="G12" t="str">
         <v>58.13%</v>
@@ -683,19 +683,19 @@
         <v>2036</v>
       </c>
       <c r="B13" t="str">
-        <v>₹ 4,12,693</v>
+        <v>₹ 3,92,262</v>
       </c>
       <c r="C13" t="str">
-        <v>₹ 1,38,796</v>
+        <v>₹ 1,31,924</v>
       </c>
       <c r="D13" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E13" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F13" t="str">
-        <v>₹ 17,01,723</v>
+        <v>₹ 16,17,479</v>
       </c>
       <c r="G13" t="str">
         <v>66.3%</v>
@@ -706,19 +706,19 @@
         <v>2037</v>
       </c>
       <c r="B14" t="str">
-        <v>₹ 4,43,407</v>
+        <v>₹ 4,21,456</v>
       </c>
       <c r="C14" t="str">
-        <v>₹ 1,08,081</v>
+        <v>₹ 1,02,731</v>
       </c>
       <c r="D14" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E14" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F14" t="str">
-        <v>₹ 12,58,316</v>
+        <v>₹ 11,96,023</v>
       </c>
       <c r="G14" t="str">
         <v>75.08%</v>
@@ -729,19 +729,19 @@
         <v>2038</v>
       </c>
       <c r="B15" t="str">
-        <v>₹ 4,76,407</v>
+        <v>₹ 4,52,823</v>
       </c>
       <c r="C15" t="str">
-        <v>₹ 75,081</v>
+        <v>₹ 71,364</v>
       </c>
       <c r="D15" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E15" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F15" t="str">
-        <v>₹ 7,81,908</v>
+        <v>₹ 7,43,200</v>
       </c>
       <c r="G15" t="str">
         <v>84.52%</v>
@@ -752,19 +752,19 @@
         <v>2039</v>
       </c>
       <c r="B16" t="str">
-        <v>₹ 5,11,863</v>
+        <v>₹ 4,86,524</v>
       </c>
       <c r="C16" t="str">
-        <v>₹ 39,625</v>
+        <v>₹ 37,663</v>
       </c>
       <c r="D16" t="str">
         <v>₹ 45,000</v>
       </c>
       <c r="E16" t="str">
-        <v>₹ 5,96,488</v>
+        <v>₹ 5,69,187</v>
       </c>
       <c r="F16" t="str">
-        <v>₹ 2,70,045</v>
+        <v>₹ 2,56,676</v>
       </c>
       <c r="G16" t="str">
         <v>94.65%</v>
@@ -775,16 +775,16 @@
         <v>2040</v>
       </c>
       <c r="B17" t="str">
-        <v>₹ 2,70,045</v>
+        <v>₹ 2,56,676</v>
       </c>
       <c r="C17" t="str">
-        <v>₹ 5,699</v>
+        <v>₹ 5,417</v>
       </c>
       <c r="D17" t="str">
         <v>₹ 22,500</v>
       </c>
       <c r="E17" t="str">
-        <v>₹ 2,98,244</v>
+        <v>₹ 2,84,593</v>
       </c>
       <c r="F17" t="str">
         <v>₹ 0</v>
